--- a/database/img_importance.xlsx
+++ b/database/img_importance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritsumei365-my.sharepoint.com/personal/chandler_fc_ritsumei_ac_jp/Documents/damon/classes/2021/china/hwks/Assignment2/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Github/importance/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F15D648E-24E7-4678-8C86-EE4EAA986890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A054E3-67BC-4D9A-873B-BE496E6A128A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132595D0-0A16-7C47-AAB3-6513B8684377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="43760" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1551,16 +1551,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H582"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2285,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2623,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3195,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3429,7 +3431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3689,7 +3691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3767,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4053,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4287,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4417,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5093,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5275,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5743,7 +5745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5795,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6055,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6185,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6887,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6939,7 +6941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6965,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6991,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7069,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7147,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7225,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7277,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7537,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7589,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7927,7 +7929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7953,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8265,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8343,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8447,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8473,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8733,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8785,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8811,7 +8813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8837,7 +8839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9071,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9227,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -9617,7 +9619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -9669,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9955,7 +9957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -10163,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -10371,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10631,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -10787,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -11047,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -11125,7 +11127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -11333,7 +11335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -11463,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -11515,7 +11517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -11593,7 +11595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -11645,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -11671,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -11723,7 +11725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -11827,7 +11829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -11879,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -11905,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -12035,7 +12037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -12061,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -12165,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -12373,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -12399,7 +12401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -12425,7 +12427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -12477,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -12529,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -12555,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -12685,7 +12687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -12711,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -12737,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -12763,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -12789,7 +12791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -12815,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -12867,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -12893,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -12919,7 +12921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -12971,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -13049,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -13075,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -13153,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -13205,7 +13207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -13231,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -13257,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -13309,7 +13311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -13361,7 +13363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -13387,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -13439,7 +13441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -13517,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -13569,7 +13571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -13595,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -13647,7 +13649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -13673,7 +13675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -13751,7 +13753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -13855,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -13933,7 +13935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -13985,7 +13987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -14011,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -14063,7 +14065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -14115,7 +14117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -14167,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -14219,7 +14221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -14349,7 +14351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -14375,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -14401,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -14453,7 +14455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -14479,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -14531,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -14583,7 +14585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -14661,7 +14663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -14713,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -14765,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -14791,7 +14793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -14817,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -14843,7 +14845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -14921,7 +14923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -14947,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -14999,7 +15001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -15025,7 +15027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -15051,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -15077,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -15155,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -15207,7 +15209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -15259,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -15337,7 +15339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -15363,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -15441,7 +15443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -15467,7 +15469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -15493,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -15519,7 +15521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -15545,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -15597,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -15623,7 +15625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -15701,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -15727,7 +15729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -15753,7 +15755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -15909,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -15935,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -15987,7 +15989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -16013,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -16039,7 +16041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -16065,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -16091,7 +16093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -16117,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -16169,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -16195,7 +16197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -16221,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -16247,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -16273,7 +16275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -16351,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -16403,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -16481,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -16507,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -16533,7 +16535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -16559,7 +16561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -16585,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -16611,7 +16613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -16637,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -16663,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
